--- a/datamares/OLR/OLR_datamares_manta.xlsx
+++ b/datamares/OLR/OLR_datamares_manta.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Working_Metadata\Batch_2_proyecto_manta_2016-10-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="323"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -1910,9 +1910,6 @@
     <t>CTD data from manta project captured in Yelapa</t>
   </si>
   <si>
-    <t>Yelapa, Mexico</t>
-  </si>
-  <si>
     <t>2014-08-07 to 2014-10-27</t>
   </si>
   <si>
@@ -1949,9 +1946,6 @@
     <t>Manta | Satellite tagging</t>
   </si>
   <si>
-    <t>Bahia de Banderas, Mexico | Revillagigedo Islands, Mexico</t>
-  </si>
-  <si>
     <t>Rastreando a las Mantas en el Pacífico de México @ http://dx.doi.org/10.13022/M3TG6X</t>
   </si>
   <si>
@@ -1976,12 +1970,6 @@
     <t>Acoustic surveys</t>
   </si>
   <si>
-    <t>Acoustics | Mantas | Receivers</t>
-  </si>
-  <si>
-    <t>Bahia de Banderas, Mexico</t>
-  </si>
-  <si>
     <t>Listening for Mantas @ http://dx.doi.org/10.13022/M3QC7B</t>
   </si>
   <si>
@@ -2009,9 +1997,6 @@
     <t>Visual survey transects from boat and on snorkel</t>
   </si>
   <si>
-    <t>Manta | Counts</t>
-  </si>
-  <si>
     <t>Monitoreo de las Manta Rayas en Bahia de Banderas, Mexico @ http://dx.doi.org/10.13022/M3X59W</t>
   </si>
   <si>
@@ -2069,9 +2054,6 @@
     <t>Inquiries should be directed to Alfredo Giron (jgironna@ucsd.edu)</t>
   </si>
   <si>
-    <t>Conductivity, Temperature, Depth (CTD) | Manta | Temperature | Salinity | Depth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Giron-Nava, Alfredo | Aburto-Oropeza, Octavio </t>
   </si>
   <si>
@@ -2085,6 +2067,24 @@
   </si>
   <si>
     <t>Stewart, Joshua; Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (20##): Proyecto Manta - Yelapa transects. In dataMares Project: Proyecto Manta. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Bahía de Banderas (Mexico)</t>
+  </si>
+  <si>
+    <t>Bahía de Banderas (Mexico) | Revillagigedo Islands (Mexico)</t>
+  </si>
+  <si>
+    <t>Yelapa (Mexico)</t>
+  </si>
+  <si>
+    <t>Acoustic survey | Manta | Acoustic receivers</t>
+  </si>
+  <si>
+    <t>Conductivity, Temperature, Depth (CTD) | Manta | Ocean temperature | Salinity</t>
+  </si>
+  <si>
+    <t>Manta | Count data</t>
   </si>
 </sst>
 </file>
@@ -3385,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3423,7 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3506,10 +3506,10 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>403</v>
@@ -3524,13 +3524,13 @@
         <v>433</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>638</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>624</v>
@@ -3542,57 +3542,57 @@
         <v>625</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>625</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="W2" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA2" s="19" t="s">
         <v>640</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>403</v>
@@ -3607,10 +3607,10 @@
         <v>433</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>625</v>
@@ -3622,51 +3622,51 @@
         <v>622</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="W3" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="X3" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>685</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>403</v>
@@ -3687,7 +3687,7 @@
         <v>624</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>624</v>
@@ -3699,55 +3699,55 @@
         <v>623</v>
       </c>
       <c r="O4" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="Q4" s="17" t="s">
-        <v>631</v>
-      </c>
       <c r="R4" s="22" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="S4" s="26"/>
       <c r="T4" s="22" t="s">
         <v>627</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="W4" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z4" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>634</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>403</v>
@@ -3762,55 +3762,55 @@
         <v>433</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>622</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="W5" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="X5" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="W5" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>662</v>
       </c>
       <c r="AB5" s="3"/>
     </row>
@@ -3959,7 +3959,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1495" yWindow="249" count="2">
+  <dataValidations disablePrompts="1" xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1:C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
   </dataValidations>
@@ -3967,7 +3967,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1495" yWindow="249" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="1495" yWindow="249" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>

--- a/datamares/OLR/OLR_datamares_manta.xlsx
+++ b/datamares/OLR/OLR_datamares_manta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="683">
   <si>
     <t>text</t>
   </si>
@@ -2006,19 +2006,7 @@
     <t>Software used: Microsoft Excel. Coordinate system: WGS1984.</t>
   </si>
   <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
     <t>004</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Aburto-Oropeza, Octavio</t>
@@ -3383,39 +3371,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.7109375" style="24" customWidth="1"/>
-    <col min="19" max="19" width="35.7109375" style="26" customWidth="1"/>
-    <col min="20" max="23" width="39.140625" style="24" customWidth="1"/>
-    <col min="24" max="24" width="42.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="56" style="3" customWidth="1"/>
-    <col min="27" max="27" width="56.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" style="26" customWidth="1"/>
+    <col min="19" max="22" width="39.140625" style="24" customWidth="1"/>
+    <col min="23" max="23" width="42.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="56" style="3" customWidth="1"/>
+    <col min="26" max="26" width="56.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3423,82 +3410,79 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>660</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>352</v>
       </c>
+      <c r="S1" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="T1" s="21" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="W1" s="21" t="s">
         <v>506</v>
       </c>
+      <c r="W1" s="16" t="s">
+        <v>460</v>
+      </c>
       <c r="X1" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="Z1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="AA1" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3506,156 +3490,150 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="K2" s="17" t="s">
+      <c r="P2" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="T2" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="S2" s="26" t="s">
+      <c r="U2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="T2" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>682</v>
+      <c r="Y2" s="19" t="s">
+        <v>641</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA2" s="19" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>642</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>671</v>
+      <c r="C3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>403</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="I3" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="J3" s="17" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="M3" s="17" t="s">
         <v>622</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>644</v>
+      </c>
       <c r="O3" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="S3" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="R3" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="24" t="s">
         <v>647</v>
       </c>
+      <c r="W3" s="3" t="s">
+        <v>680</v>
+      </c>
       <c r="X3" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="Z3" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>649</v>
       </c>
@@ -3663,184 +3641,178 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>631</v>
+        <v>403</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>433</v>
+        <v>626</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J4" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>674</v>
-      </c>
       <c r="L4" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q4" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="22" t="s">
+      <c r="Q4" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="U4" s="23" t="s">
-        <v>675</v>
+      <c r="T4" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="W4" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>683</v>
+      <c r="W4" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="X4" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>633</v>
       </c>
       <c r="Z4" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="AA4" s="19" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="D5" s="17" t="s">
+        <v>403</v>
+      </c>
       <c r="E5" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H5" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>651</v>
       </c>
+      <c r="I5" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="J5" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="R5" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="T5" s="24" t="s">
+      <c r="S5" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="U5" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="V5" s="22" t="s">
+      <c r="T5" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="U5" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>683</v>
+      <c r="W5" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="X5" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA5" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="AB5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="V6" s="22"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M7" s="17"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O8" s="20"/>
-      <c r="V8" s="22"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="17"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L10" s="17"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J11" s="17"/>
-      <c r="V11" s="22"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L7" s="17"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N8" s="20"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K9" s="17"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K10" s="17"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I11" s="17"/>
+      <c r="U11" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:C1048576 B1:C1 B4">
+  <conditionalFormatting sqref="B10:B1048576 B1 B4">
     <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
@@ -3857,7 +3829,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
+  <conditionalFormatting sqref="B7">
     <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B7)))</formula>
     </cfRule>
@@ -3874,7 +3846,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="containsText" dxfId="24" priority="36" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B6)))</formula>
     </cfRule>
@@ -3891,7 +3863,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+  <conditionalFormatting sqref="B8">
     <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B8)))</formula>
     </cfRule>
@@ -3908,7 +3880,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
+  <conditionalFormatting sqref="B9">
     <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B9)))</formula>
     </cfRule>
@@ -3959,86 +3931,86 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="1495" yWindow="249" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1:C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+  <dataValidations xWindow="1495" yWindow="249" count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="1495" yWindow="249" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1495" yWindow="249" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:O1</xm:sqref>
+          <xm:sqref>M1:N1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:L1</xm:sqref>
+          <xm:sqref>I1:K1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E4 E6:E1048576</xm:sqref>
+          <xm:sqref>D4 D6:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F4 F6:F1048576</xm:sqref>
+          <xm:sqref>E4 E6:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:C1048576 B4</xm:sqref>
+          <xm:sqref>B6:B1048576 B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:H4 G6:H1048576</xm:sqref>
+          <xm:sqref>F4:G4 F6:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H3 G5:H5</xm:sqref>
+          <xm:sqref>F2:G3 F5:G5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:F5 E2:F3 B5 B2:B3</xm:sqref>
+          <xm:sqref>D5:E5 D2:E3 B5 B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Y1</xm:sqref>
+          <xm:sqref>W1:X1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Z1:AA1</xm:sqref>
+          <xm:sqref>Y1:Z1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R1:W1</xm:sqref>
+          <xm:sqref>Q1:V1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_manta.xlsx
+++ b/datamares/OLR/OLR_datamares_manta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="680">
   <si>
     <t>text</t>
   </si>
@@ -1931,9 +1931,6 @@
     <t>Por que hay mantas en Bahia de Banderas, Mexico? @ http://dx.doi.org/10.13022/M3MS31</t>
   </si>
   <si>
-    <t>mp_po_tagging.xlsx</t>
-  </si>
-  <si>
     <t>Tracking mantas in Pacific Mexico</t>
   </si>
   <si>
@@ -1976,9 +1973,6 @@
     <t>003</t>
   </si>
   <si>
-    <t>mp_ye_transects.xlsx</t>
-  </si>
-  <si>
     <t>Proyecto Manta - Yelapa transects</t>
   </si>
   <si>
@@ -2025,9 +2019,6 @@
   </si>
   <si>
     <t>The data described here have been embargoed until 01/01/2019. Inquiries should be directed to Joshua Stewart (j8stewart@ucsd.edu).</t>
-  </si>
-  <si>
-    <t>mp_ye_acoustics.xlsx</t>
   </si>
   <si>
     <t>The data described here have been embargoed until 12/31/2019. Inquiries should be directed to Joshua Stewart (joshua.stewart6@gmail.com).</t>
@@ -3489,15 +3480,9 @@
       <c r="B2" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
         <v>358</v>
       </c>
@@ -3505,13 +3490,13 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>637</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>624</v>
@@ -3523,61 +3508,54 @@
         <v>625</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>625</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z2" s="19" t="s">
         <v>639</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
         <v>358</v>
       </c>
@@ -3585,10 +3563,10 @@
         <v>433</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>625</v>
@@ -3600,42 +3578,42 @@
         <v>622</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="R3" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="V3" s="24" t="s">
+      <c r="W3" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>485</v>
@@ -3662,7 +3640,7 @@
         <v>624</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>624</v>
@@ -3683,26 +3661,26 @@
         <v>630</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="22" t="s">
         <v>627</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>632</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="X4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Y4" s="19" t="s">
         <v>633</v>
@@ -3713,20 +3691,13 @@
     </row>
     <row r="5" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
         <v>358</v>
       </c>
@@ -3734,55 +3705,55 @@
         <v>433</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>622</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="S5" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="T5" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="W5" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="X5" t="s">
         <v>676</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="X5" t="s">
-        <v>679</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="AA5" s="3"/>
     </row>

--- a/datamares/OLR/OLR_datamares_manta.xlsx
+++ b/datamares/OLR/OLR_datamares_manta.xlsx
@@ -1895,9 +1895,6 @@
     <t>Scripps Institution of Oceanography</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Giron-Nava, Alfredo</t>
   </si>
   <si>
@@ -2036,9 +2033,6 @@
     <t xml:space="preserve">Giron-Nava, Alfredo | Aburto-Oropeza, Octavio </t>
   </si>
   <si>
-    <t>Giron-Nava, Alfredo; Stewart, Joshua; Aburto-Oropeza, Octavio (2016): Proyecto Manta - CTD. In dataMares Project: Proyecto Manta. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Stewart, Joshua; Aburto-Oropeza, Octavio (20##): Tracking mantas in Pacific Mexico. In dataMares Project: Proyecto Manta. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
@@ -2064,6 +2058,12 @@
   </si>
   <si>
     <t>Manta | Count data</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Giron-Nava, Alfredo; Stewart, Joshua; Aburto-Oropeza, Octavio (2017): Proyecto Manta - CTD. In dataMares Project: Proyecto Manta. UC San Diego Library Digital Collections.</t>
   </si>
 </sst>
 </file>
@@ -3364,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,66 +3490,66 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>636</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>622</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N2" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>671</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="T2" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>664</v>
-      </c>
       <c r="U2" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z2" s="19" t="s">
         <v>638</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>485</v>
@@ -3563,63 +3563,63 @@
         <v>433</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>622</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="W3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="V3" s="24" t="s">
+      <c r="Y3" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>403</v>
@@ -3634,64 +3634,64 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>622</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>630</v>
-      </c>
       <c r="Q4" s="22" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V4" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="X4" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="W4" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="X4" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>485</v>
@@ -3705,55 +3705,55 @@
         <v>433</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>622</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="S5" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="S5" s="24" t="s">
+      <c r="T5" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="T5" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="V5" s="24" t="s">
+      <c r="W5" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="X5" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="X5" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="AA5" s="3"/>
     </row>

--- a/datamares/OLR/OLR_datamares_manta.xlsx
+++ b/datamares/OLR/OLR_datamares_manta.xlsx
@@ -2015,12 +2015,6 @@
     <t>Understanding how marine vertebrates move throughout the oceans is critical to effectively protecting and managing these species. Mantas are no exception, and are perhaps one of the most poorly studied marine species on the planet. Using archival satellite tags, which provide satellite-transmitted location estimates from data collected during a tag deployment, researchers from Scripps Institution of Oceanography are finally beginning to understand the movements of these elusive and mysterious creatures. You can find some of the first results of tagging mantas at two field sites in Pacific Mexico: Bahia de Banderas, on the mainland, and the offshore Revillagigedo Islands. So far, the tagging data indicates that there is no connectivity between mantas tagged at the islands and those tagged on the mainland, meaning that mantas do not travel between these sites. However, mantas from both locations made north-south movements during the same seasons, spent extensive amounts of time in deep-water pelagic zones, and made some monumental deep dives. These tagged mantas showed a high degree of site affinity, suggesting that mantas may form local subpopulations rather than being the prolific oceanic wanderers once assumed. Explore the data at datamares.ucsd.edu (see Related Resource links) to see how these mantas moved around over the 6-month deployments, and what their daily maximum depths were.</t>
   </si>
   <si>
-    <t>The data described here have been embargoed until 01/01/2019. Inquiries should be directed to Joshua Stewart (j8stewart@ucsd.edu).</t>
-  </si>
-  <si>
-    <t>The data described here have been embargoed until 12/31/2019. Inquiries should be directed to Joshua Stewart (joshua.stewart6@gmail.com).</t>
-  </si>
-  <si>
     <t>Acoustic receivers' data from Bahia de Banderas</t>
   </si>
   <si>
@@ -2064,6 +2058,12 @@
   </si>
   <si>
     <t>Giron-Nava, Alfredo; Stewart, Joshua; Aburto-Oropeza, Octavio (2017): Proyecto Manta - CTD. In dataMares Project: Proyecto Manta. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>The data described here have been embargoed until 2019-01-01. Inquiries should be directed to Joshua Stewart (j8stewart@ucsd.edu).</t>
+  </si>
+  <si>
+    <t>The data described here have been embargoed until 2019-12-31. Inquiries should be directed to Joshua Stewart (joshua.stewart6@gmail.com).</t>
   </si>
 </sst>
 </file>
@@ -3364,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,13 +3520,13 @@
         <v>624</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>662</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>656</v>
@@ -3538,7 +3538,7 @@
         <v>637</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>639</v>
@@ -3587,13 +3587,13 @@
         <v>644</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>656</v>
@@ -3602,10 +3602,10 @@
         <v>645</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>646</v>
@@ -3640,7 +3640,7 @@
         <v>623</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>623</v>
@@ -3649,7 +3649,7 @@
         <v>622</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>627</v>
@@ -3661,14 +3661,14 @@
         <v>629</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="22" t="s">
         <v>626</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>656</v>
@@ -3677,10 +3677,10 @@
         <v>631</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="X4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Y4" s="19" t="s">
         <v>632</v>
@@ -3711,7 +3711,7 @@
         <v>635</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>635</v>
@@ -3729,13 +3729,13 @@
         <v>651</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S5" s="24" t="s">
         <v>652</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>656</v>
@@ -3744,10 +3744,10 @@
         <v>653</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="X5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>655</v>
